--- a/Site Data Sheet.xlsx
+++ b/Site Data Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariozuliani/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariozuliani/Desktop/Data Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="19">
   <si>
     <t>Site</t>
   </si>
@@ -67,15 +67,42 @@
   <si>
     <t>shrub.species</t>
   </si>
+  <si>
+    <t>Carrizo</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>ephedra</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,12 +124,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -394,47 +438,2211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
+        <v>35.11985</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-119.62835</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>35.119819999999997</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-119.62853</v>
+      </c>
+      <c r="J2" s="1">
+        <v>300</v>
+      </c>
+      <c r="K2" s="1">
+        <v>240</v>
+      </c>
+      <c r="L2" s="1">
+        <v>145</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>35.11985</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-119.62835</v>
+      </c>
+      <c r="F3" s="1">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>35.119840000000003</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-119.62842999999999</v>
+      </c>
+      <c r="J3" s="1">
+        <v>434</v>
+      </c>
+      <c r="K3" s="1">
+        <v>260</v>
+      </c>
+      <c r="L3" s="1">
+        <v>143</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>35.11985</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-119.62835</v>
+      </c>
+      <c r="F4" s="1">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>35.119880000000002</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-119.62846</v>
+      </c>
+      <c r="J4" s="1">
+        <v>326</v>
+      </c>
+      <c r="K4" s="1">
+        <v>228</v>
+      </c>
+      <c r="L4" s="1">
+        <v>156</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>35.11985</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-119.62835</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>35.11992</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-119.62839</v>
+      </c>
+      <c r="J5" s="1">
+        <v>224</v>
+      </c>
+      <c r="K5" s="1">
+        <v>158</v>
+      </c>
+      <c r="L5" s="1">
+        <v>138</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>35.11985</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-119.62835</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>35.11992</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-119.62836</v>
+      </c>
+      <c r="J6" s="1">
+        <v>222</v>
+      </c>
+      <c r="K6" s="1">
+        <v>170</v>
+      </c>
+      <c r="L6" s="1">
+        <v>135</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>35.11985</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-119.62835</v>
+      </c>
+      <c r="F7" s="1">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>35.11994</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-119.62836</v>
+      </c>
+      <c r="J7" s="1">
+        <v>196</v>
+      </c>
+      <c r="K7" s="1">
+        <v>173</v>
+      </c>
+      <c r="L7" s="1">
+        <v>151</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>35.11985</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-119.62835</v>
+      </c>
+      <c r="F8" s="1">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>35.119909999999997</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-119.62831</v>
+      </c>
+      <c r="J8" s="1">
+        <v>182</v>
+      </c>
+      <c r="K8" s="1">
+        <v>157</v>
+      </c>
+      <c r="L8" s="1">
+        <v>153</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>35.11985</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-119.62835</v>
+      </c>
+      <c r="F9" s="1">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2">
+        <v>35.119900000000001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-119.62833000000001</v>
+      </c>
+      <c r="J9" s="1">
+        <v>185</v>
+      </c>
+      <c r="K9" s="1">
+        <v>184</v>
+      </c>
+      <c r="L9" s="1">
+        <v>118</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>35.11985</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-119.62835</v>
+      </c>
+      <c r="F10" s="1">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1">
+        <v>35.119929999999997</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-119.62827</v>
+      </c>
+      <c r="J10" s="1">
+        <v>174</v>
+      </c>
+      <c r="K10" s="1">
+        <v>147</v>
+      </c>
+      <c r="L10" s="1">
+        <v>102</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1">
+        <v>35.11985</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-119.62835</v>
+      </c>
+      <c r="F11" s="1">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>35.11983</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-119.62827</v>
+      </c>
+      <c r="J11" s="1">
+        <v>277</v>
+      </c>
+      <c r="K11" s="1">
+        <v>223</v>
+      </c>
+      <c r="L11" s="1">
+        <v>129</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35.11985</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-119.62835</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1">
+        <v>35.119819999999997</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-119.82827</v>
+      </c>
+      <c r="J12" s="1">
+        <v>281</v>
+      </c>
+      <c r="K12" s="1">
+        <v>205</v>
+      </c>
+      <c r="L12" s="1">
+        <v>121</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1">
+        <v>35.11985</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-119.62835</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2">
+        <v>35.119799999999998</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-119.62828</v>
+      </c>
+      <c r="J13" s="1">
+        <v>271</v>
+      </c>
+      <c r="K13" s="1">
+        <v>241</v>
+      </c>
+      <c r="L13" s="1">
+        <v>125</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>35.119199999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-119.62947</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>35.119100000000003</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-119.62842999999999</v>
+      </c>
+      <c r="J14" s="1">
+        <v>262</v>
+      </c>
+      <c r="K14" s="1">
+        <v>256</v>
+      </c>
+      <c r="L14" s="1">
+        <v>148</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
+        <v>35.119199999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-119.62947</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>35.119169999999997</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-119.62842999999999</v>
+      </c>
+      <c r="J15" s="1">
+        <v>274</v>
+      </c>
+      <c r="K15" s="1">
+        <v>254</v>
+      </c>
+      <c r="L15" s="1">
+        <v>159</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2">
+        <v>35.119199999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-119.62947</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>35.119230000000002</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-119.62851999999999</v>
+      </c>
+      <c r="J16" s="1">
+        <v>493</v>
+      </c>
+      <c r="K16" s="1">
+        <v>398</v>
+      </c>
+      <c r="L16" s="1">
+        <v>144</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2">
+        <v>35.119199999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-119.62947</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>35.119289999999999</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-119.62836</v>
+      </c>
+      <c r="J17" s="1">
+        <v>221</v>
+      </c>
+      <c r="K17" s="1">
+        <v>281</v>
+      </c>
+      <c r="L17" s="1">
+        <v>131</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2">
+        <v>35.119199999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-119.62947</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>35.119289999999999</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-119.62833999999999</v>
+      </c>
+      <c r="J18" s="1">
+        <v>295</v>
+      </c>
+      <c r="K18" s="1">
+        <v>255</v>
+      </c>
+      <c r="L18" s="1">
+        <v>123</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2">
+        <v>35.119199999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-119.62947</v>
+      </c>
+      <c r="F19" s="1">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1">
+        <v>6</v>
+      </c>
+      <c r="H19" s="1">
+        <v>35.119259999999997</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-119.62824999999999</v>
+      </c>
+      <c r="J19" s="1">
+        <v>338</v>
+      </c>
+      <c r="K19" s="1">
+        <v>310</v>
+      </c>
+      <c r="L19" s="1">
+        <v>148</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1">
+        <v>35.11889</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-119.62922</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>35.118810000000003</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-119.62924</v>
+      </c>
+      <c r="J20" s="1">
+        <v>230</v>
+      </c>
+      <c r="K20" s="1">
+        <v>200</v>
+      </c>
+      <c r="L20" s="1">
+        <v>132</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1">
+        <v>35.11889</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-119.62922</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>35.1188</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-119.62924</v>
+      </c>
+      <c r="J21" s="1">
+        <v>269</v>
+      </c>
+      <c r="K21" s="1">
+        <v>164</v>
+      </c>
+      <c r="L21" s="1">
+        <v>112</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1">
+        <v>35.118450000000003</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-119.62862</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1">
+        <v>35.161749999999998</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-119.67192</v>
+      </c>
+      <c r="F23" s="1">
+        <v>11</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>35.161720000000003</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-119.67201</v>
+      </c>
+      <c r="J23" s="1">
+        <v>230</v>
+      </c>
+      <c r="K23" s="1">
+        <v>121</v>
+      </c>
+      <c r="L23" s="1">
+        <v>107</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1">
+        <v>35.161749999999998</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-119.67192</v>
+      </c>
+      <c r="F24" s="1">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>35.161740000000002</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-119.67198</v>
+      </c>
+      <c r="J24" s="1">
+        <v>280</v>
+      </c>
+      <c r="K24" s="1">
+        <v>173</v>
+      </c>
+      <c r="L24" s="1">
+        <v>117</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1">
+        <v>35.161749999999998</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-119.67192</v>
+      </c>
+      <c r="F25" s="1">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>35.161740000000002</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-119.67194000000001</v>
+      </c>
+      <c r="J25" s="1">
+        <v>178</v>
+      </c>
+      <c r="K25" s="1">
+        <v>165</v>
+      </c>
+      <c r="L25" s="1">
+        <v>99</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1">
+        <v>35.161749999999998</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-119.67192</v>
+      </c>
+      <c r="F26" s="1">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1">
+        <v>35.161720000000003</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-119.67196</v>
+      </c>
+      <c r="J26" s="1">
+        <v>121</v>
+      </c>
+      <c r="K26" s="1">
+        <v>108</v>
+      </c>
+      <c r="L26" s="1">
+        <v>123</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1">
+        <v>35.161749999999998</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-119.67192</v>
+      </c>
+      <c r="F27" s="1">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>35.161790000000003</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-119.67191</v>
+      </c>
+      <c r="J27" s="1">
+        <v>239</v>
+      </c>
+      <c r="K27" s="1">
+        <v>197</v>
+      </c>
+      <c r="L27" s="1">
+        <v>109</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1">
+        <v>35.161749999999998</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-119.67192</v>
+      </c>
+      <c r="F28" s="1">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1">
+        <v>6</v>
+      </c>
+      <c r="H28" s="1">
+        <v>35.161839999999998</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-119.67191</v>
+      </c>
+      <c r="J28" s="1">
+        <v>239</v>
+      </c>
+      <c r="K28" s="1">
+        <v>197</v>
+      </c>
+      <c r="L28" s="1">
+        <v>111</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1">
+        <v>35.161749999999998</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-119.67192</v>
+      </c>
+      <c r="F29" s="1">
+        <v>11</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7</v>
+      </c>
+      <c r="H29" s="1">
+        <v>35.161749999999998</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-119.67191</v>
+      </c>
+      <c r="J29" s="1">
+        <v>180</v>
+      </c>
+      <c r="K29" s="1">
+        <v>173</v>
+      </c>
+      <c r="L29" s="1">
+        <v>83</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1">
+        <v>35.161749999999998</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-119.67192</v>
+      </c>
+      <c r="F30" s="1">
+        <v>11</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8</v>
+      </c>
+      <c r="H30" s="1">
+        <v>35.161729999999999</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-119.67189999999999</v>
+      </c>
+      <c r="J30" s="1">
+        <v>240</v>
+      </c>
+      <c r="K30" s="1">
+        <v>172</v>
+      </c>
+      <c r="L30" s="1">
+        <v>98</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1">
+        <v>35.161749999999998</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-119.67192</v>
+      </c>
+      <c r="F31" s="1">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1">
+        <v>9</v>
+      </c>
+      <c r="H31" s="1">
+        <v>35.161709999999999</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-119.67189</v>
+      </c>
+      <c r="J31" s="1">
+        <v>219</v>
+      </c>
+      <c r="K31" s="1">
+        <v>189</v>
+      </c>
+      <c r="L31" s="1">
+        <v>107</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1">
+        <v>35.161749999999998</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-119.67192</v>
+      </c>
+      <c r="F32" s="1">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1">
+        <v>35.161709999999999</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-119.67188</v>
+      </c>
+      <c r="J32" s="1">
+        <v>204</v>
+      </c>
+      <c r="K32" s="1">
+        <v>203</v>
+      </c>
+      <c r="L32" s="1">
+        <v>149</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1">
+        <v>35.161749999999998</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-119.67192</v>
+      </c>
+      <c r="F33" s="1">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1">
+        <v>11</v>
+      </c>
+      <c r="H33" s="1">
+        <v>35.161679999999997</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-119.67296</v>
+      </c>
+      <c r="J33" s="1">
+        <v>235</v>
+      </c>
+      <c r="K33" s="1">
+        <v>172</v>
+      </c>
+      <c r="L33" s="1">
+        <v>124</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2">
+        <v>35.163200000000003</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-119.67406</v>
+      </c>
+      <c r="F34" s="1">
+        <v>7</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>35.163119999999999</v>
+      </c>
+      <c r="I34" s="2">
+        <v>-119.6741</v>
+      </c>
+      <c r="J34" s="1">
+        <v>344</v>
+      </c>
+      <c r="K34" s="1">
+        <v>249</v>
+      </c>
+      <c r="L34" s="1">
+        <v>121</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="2">
+        <v>35.163200000000003</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-119.67406</v>
+      </c>
+      <c r="F35" s="1">
+        <v>7</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="H35" s="2">
+        <v>35.1633</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-119.67403</v>
+      </c>
+      <c r="J35" s="1">
+        <v>187</v>
+      </c>
+      <c r="K35" s="1">
+        <v>162</v>
+      </c>
+      <c r="L35" s="1">
+        <v>93</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="2">
+        <v>35.163200000000003</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-119.67406</v>
+      </c>
+      <c r="F36" s="1">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>35.163310000000003</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-119.67406</v>
+      </c>
+      <c r="J36" s="1">
+        <v>358</v>
+      </c>
+      <c r="K36" s="1">
+        <v>251</v>
+      </c>
+      <c r="L36" s="1">
+        <v>133</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="2">
+        <v>35.163200000000003</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-119.67406</v>
+      </c>
+      <c r="F37" s="1">
+        <v>7</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4</v>
+      </c>
+      <c r="H37" s="1">
+        <v>35.163290000000003</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-119.67399</v>
+      </c>
+      <c r="J37" s="1">
+        <v>257</v>
+      </c>
+      <c r="K37" s="1">
+        <v>206</v>
+      </c>
+      <c r="L37" s="1">
+        <v>94</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2">
+        <v>35.163200000000003</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-119.67406</v>
+      </c>
+      <c r="F38" s="1">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1">
+        <v>5</v>
+      </c>
+      <c r="H38" s="1">
+        <v>35.163139999999999</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-119.67397</v>
+      </c>
+      <c r="J38" s="1">
+        <v>208</v>
+      </c>
+      <c r="K38" s="1">
+        <v>91</v>
+      </c>
+      <c r="L38" s="1">
+        <v>96</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="2">
+        <v>35.163200000000003</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-119.67406</v>
+      </c>
+      <c r="F39" s="1">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6</v>
+      </c>
+      <c r="H39" s="1">
+        <v>35.163159999999998</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-119.67397</v>
+      </c>
+      <c r="J39" s="1">
+        <v>175</v>
+      </c>
+      <c r="K39" s="1">
+        <v>165</v>
+      </c>
+      <c r="L39" s="1">
+        <v>117</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="2">
+        <v>35.162520000000001</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-119.67292</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>35.162230000000001</v>
+      </c>
+      <c r="I40" s="1">
+        <v>-119.67297000000001</v>
+      </c>
+      <c r="J40" s="1">
+        <v>353</v>
+      </c>
+      <c r="K40" s="1">
+        <v>289</v>
+      </c>
+      <c r="L40" s="1">
+        <v>145</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="2">
+        <v>35.162520000000001</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-119.67292</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
+      <c r="H41" s="2">
+        <v>35.162300000000002</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-119.67296</v>
+      </c>
+      <c r="J41" s="1">
+        <v>234</v>
+      </c>
+      <c r="K41" s="1">
+        <v>154</v>
+      </c>
+      <c r="L41" s="1">
+        <v>151</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="2">
+        <v>35.162520000000001</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-119.67292</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1">
+        <v>35.162329999999997</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-119.67295</v>
+      </c>
+      <c r="J42" s="1">
+        <v>243</v>
+      </c>
+      <c r="K42" s="1">
+        <v>217</v>
+      </c>
+      <c r="L42" s="1">
+        <v>147</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="1">
+        <v>35.162559999999999</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-119.67431999999999</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="57" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/Site Data Sheet.xlsx
+++ b/Site Data Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="20">
   <si>
     <t>Site</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Panoche</t>
   </si>
 </sst>
 </file>
@@ -426,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2173,267 +2176,721 @@
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="1">
+        <v>36.695929999999997</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-120.79792999999999</v>
+      </c>
+      <c r="F44" s="1">
+        <v>6</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>36.69603</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-120.79797000000001</v>
+      </c>
+      <c r="J44" s="1">
+        <v>270</v>
+      </c>
+      <c r="K44" s="1">
+        <v>250</v>
+      </c>
+      <c r="L44" s="1">
+        <v>136</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="1">
+        <v>36.695929999999997</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-120.79792999999999</v>
+      </c>
+      <c r="F45" s="1">
+        <v>6</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>36.696010000000001</v>
+      </c>
+      <c r="I45" s="1">
+        <v>-120.79792999999999</v>
+      </c>
+      <c r="J45" s="1">
+        <v>420</v>
+      </c>
+      <c r="K45" s="1">
+        <v>410</v>
+      </c>
+      <c r="L45" s="1">
+        <v>204</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="1">
+        <v>36.695929999999997</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-120.79792999999999</v>
+      </c>
+      <c r="F46" s="1">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3</v>
+      </c>
+      <c r="H46" s="1">
+        <v>36.69594</v>
+      </c>
+      <c r="I46" s="1">
+        <v>-120.79786</v>
+      </c>
+      <c r="J46" s="1">
+        <v>381</v>
+      </c>
+      <c r="K46" s="1">
+        <v>290</v>
+      </c>
+      <c r="L46" s="1">
+        <v>204</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="1">
+        <v>36.695929999999997</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-120.79792999999999</v>
+      </c>
+      <c r="F47" s="1">
+        <v>6</v>
+      </c>
+      <c r="G47" s="1">
+        <v>4</v>
+      </c>
+      <c r="H47" s="1">
+        <v>36.695889999999999</v>
+      </c>
+      <c r="I47" s="1">
+        <v>-120.79783999999999</v>
+      </c>
+      <c r="J47" s="1">
+        <v>356</v>
+      </c>
+      <c r="K47" s="1">
+        <v>295</v>
+      </c>
+      <c r="L47" s="1">
+        <v>186</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="1">
+        <v>36.695929999999997</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-120.79792999999999</v>
+      </c>
+      <c r="F48" s="1">
+        <v>6</v>
+      </c>
+      <c r="G48" s="1">
+        <v>5</v>
+      </c>
+      <c r="H48" s="2">
+        <v>36.695799999999998</v>
+      </c>
+      <c r="I48" s="1">
+        <v>-120.79801999999999</v>
+      </c>
+      <c r="J48" s="1">
+        <v>384</v>
+      </c>
+      <c r="K48" s="1">
+        <v>224</v>
+      </c>
+      <c r="L48" s="1">
+        <v>157</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="1">
+        <v>36.695929999999997</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-120.79792999999999</v>
+      </c>
+      <c r="F49" s="1">
+        <v>6</v>
+      </c>
+      <c r="G49" s="1">
+        <v>6</v>
+      </c>
+      <c r="H49" s="1">
+        <v>36.695889999999999</v>
+      </c>
+      <c r="I49" s="2">
+        <v>-120.798</v>
+      </c>
+      <c r="J49" s="1">
+        <v>386</v>
+      </c>
+      <c r="K49" s="1">
+        <v>378</v>
+      </c>
+      <c r="L49" s="1">
+        <v>132</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="1">
+        <v>36.695929999999997</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-120.79662</v>
+      </c>
+      <c r="F50" s="1">
+        <v>8</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>36.695929999999997</v>
+      </c>
+      <c r="I50" s="1">
+        <v>-120.79674</v>
+      </c>
+      <c r="J50" s="1">
+        <v>160</v>
+      </c>
+      <c r="K50" s="1">
+        <v>150</v>
+      </c>
+      <c r="L50" s="1">
+        <v>95</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="1">
+        <v>36.695929999999997</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-120.79662</v>
+      </c>
+      <c r="F51" s="1">
+        <v>8</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>36.69594</v>
+      </c>
+      <c r="I51" s="1">
+        <v>-120.79675</v>
+      </c>
+      <c r="J51" s="1">
+        <v>293</v>
+      </c>
+      <c r="K51" s="1">
+        <v>226</v>
+      </c>
+      <c r="L51" s="1">
+        <v>107</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="1">
+        <v>36.695929999999997</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-120.79662</v>
+      </c>
+      <c r="F52" s="1">
+        <v>8</v>
+      </c>
+      <c r="G52" s="1">
+        <v>3</v>
+      </c>
+      <c r="H52" s="1">
+        <v>36.695959999999999</v>
+      </c>
+      <c r="I52" s="1">
+        <v>-120.79676000000001</v>
+      </c>
+      <c r="J52" s="1">
+        <v>606</v>
+      </c>
+      <c r="K52" s="1">
+        <v>466</v>
+      </c>
+      <c r="L52" s="1">
+        <v>228</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="1">
+        <v>36.695929999999997</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-120.79662</v>
+      </c>
+      <c r="F53" s="1">
+        <v>8</v>
+      </c>
+      <c r="G53" s="1">
+        <v>4</v>
+      </c>
+      <c r="H53" s="1">
+        <v>36.696060000000003</v>
+      </c>
+      <c r="I53" s="1">
+        <v>-120.79667000000001</v>
+      </c>
+      <c r="J53" s="1">
+        <v>245</v>
+      </c>
+      <c r="K53" s="1">
+        <v>240</v>
+      </c>
+      <c r="L53" s="1">
+        <v>127</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="1">
+        <v>36.695929999999997</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-120.79662</v>
+      </c>
+      <c r="F54" s="1">
+        <v>8</v>
+      </c>
+      <c r="G54" s="1">
+        <v>5</v>
+      </c>
+      <c r="H54" s="1">
+        <v>36.696060000000003</v>
+      </c>
+      <c r="I54" s="1">
+        <v>-120.79665</v>
+      </c>
+      <c r="J54" s="1">
+        <v>262</v>
+      </c>
+      <c r="K54" s="1">
+        <v>244</v>
+      </c>
+      <c r="L54" s="1">
+        <v>145</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="1">
+        <v>36.695929999999997</v>
+      </c>
+      <c r="E55" s="1">
+        <v>-120.79662</v>
+      </c>
+      <c r="F55" s="1">
+        <v>8</v>
+      </c>
+      <c r="G55" s="1">
+        <v>6</v>
+      </c>
+      <c r="H55" s="1">
+        <v>36.695979999999999</v>
+      </c>
+      <c r="I55" s="1">
+        <v>-120.79662999999999</v>
+      </c>
+      <c r="J55" s="1">
+        <v>265</v>
+      </c>
+      <c r="K55" s="1">
+        <v>260</v>
+      </c>
+      <c r="L55" s="1">
+        <v>124</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="1">
+        <v>36.695929999999997</v>
+      </c>
+      <c r="E56" s="1">
+        <v>-120.79662</v>
+      </c>
+      <c r="F56" s="1">
+        <v>8</v>
+      </c>
+      <c r="G56" s="1">
+        <v>7</v>
+      </c>
+      <c r="H56" s="1">
+        <v>36.695950000000003</v>
+      </c>
+      <c r="I56" s="1">
+        <v>-120.79662</v>
+      </c>
+      <c r="J56" s="1">
+        <v>373</v>
+      </c>
+      <c r="K56" s="1">
+        <v>312</v>
+      </c>
+      <c r="L56" s="1">
+        <v>130</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="1">
+        <v>36.695929999999997</v>
+      </c>
+      <c r="E57" s="1">
+        <v>-120.79662</v>
+      </c>
+      <c r="F57" s="1">
+        <v>8</v>
+      </c>
+      <c r="G57" s="1">
+        <v>8</v>
+      </c>
+      <c r="H57" s="1">
+        <v>36.695920000000001</v>
+      </c>
+      <c r="I57" s="1">
+        <v>-120.79658999999999</v>
+      </c>
+      <c r="J57" s="1">
+        <v>160</v>
+      </c>
+      <c r="K57" s="1">
+        <v>150</v>
+      </c>
+      <c r="L57" s="1">
+        <v>95</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="1">
+        <v>36.695270000000001</v>
+      </c>
+      <c r="E58" s="2">
+        <v>-120.7971</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>36.695340000000002</v>
+      </c>
+      <c r="I58" s="1">
+        <v>-120.79703000000001</v>
+      </c>
+      <c r="J58" s="1">
+        <v>510</v>
+      </c>
+      <c r="K58" s="1">
+        <v>420</v>
+      </c>
+      <c r="L58" s="1">
+        <v>191</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="1">
+        <v>36.695270000000001</v>
+      </c>
+      <c r="E59" s="2">
+        <v>-120.7971</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>36.695320000000002</v>
+      </c>
+      <c r="I59" s="1">
+        <v>-120.79715</v>
+      </c>
+      <c r="J59" s="1">
+        <v>170</v>
+      </c>
+      <c r="K59" s="1">
+        <v>120</v>
+      </c>
+      <c r="L59" s="1">
+        <v>95</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="1">
+        <v>36.695270000000001</v>
+      </c>
+      <c r="E60" s="2">
+        <v>-120.7971</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3</v>
+      </c>
+      <c r="G60" s="1">
+        <v>3</v>
+      </c>
+      <c r="H60" s="1">
+        <v>36.695340000000002</v>
+      </c>
+      <c r="I60" s="1">
+        <v>-120.79722</v>
+      </c>
+      <c r="J60" s="1">
+        <v>420</v>
+      </c>
+      <c r="K60" s="1">
+        <v>350</v>
+      </c>
+      <c r="L60" s="1">
+        <v>144</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="1">
+        <v>36.693770000000001</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-120.79281</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
